--- a/mergedInvoice/A.xlsx
+++ b/mergedInvoice/A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -34,81 +34,52 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number INV-3337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your City AZ 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne; VIC 3000 tocttoct Con </t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@slicedinvoices, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invoice Number
-_x005F_x000C_ Order Number
-_x005F_x000C_ Invoice Date
-_x005F_x000C_ Due Date
-_x005F_x000C_ Total Due
+    <t xml:space="preserve">Invoice Number INV-333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your Citv 4Z 12345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 testtest com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@test, admin@slicedinvoices, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hrs/Qty
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.00
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Design
+This is a sample description...
 _x005F_x000C_</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate/Price
-_x005F_x000C_ Service
-_x005F_x000C_ Hrs/Qty
-_x005F_x000C_ $85.00
-_x005F_x000C_ Web Design
-This is a sample description...
-_x005F_x000C_ 1.00
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $85.00
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjust
+_x005F_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00%
 _x005F_x000C_</t>
   </si>
   <si>
     <t xml:space="preserve"> Sub Total
-Tax
-_x005F_x000C_ Total
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Order Number 12345
-$09.5
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjust
-_x005F_x000C_ 0.00%
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total $85.00
-Tax $8.50
-$99.50
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INV-3337
-_x005F_x000C_ 12345
-_x005F_x000C_ January 25, 2016
-_x005F_x000C_ | January 31, 2016
-_x005F_x000C_ $93.50
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-$85.00
-_x005F_x000C_ $8.50
-_x005F_x000C_ $93.50 |
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total
-_x005F_x000C_ $85.00
 _x005F_x000C_</t>
   </si>
 </sst>
@@ -467,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,11 +478,8 @@
       <c r="K1" s="1">
         <v>4</v>
       </c>
-      <c r="L1" s="1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -525,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="F3">
         <v>0</v>
       </c>
@@ -533,22 +501,19 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="F4">
         <v>1</v>
       </c>
@@ -556,171 +521,16 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
         <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mergedInvoice/A.xlsx
+++ b/mergedInvoice/A.xlsx
@@ -34,53 +34,43 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number INV-333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO Sliced Invoices Suite 5A-1204 123 Somewhere Street Your Citv 4Z 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 testtest com </t>
+    <t xml:space="preserve">Invoice Number | INV-3337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO - Sliced Invoices Suite 54-1204 123 Somewhere Street Vour City A7 12245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melboume, VIC 3000 taat@taet anim </t>
   </si>
   <si>
     <t xml:space="preserve">test@test, admin@slicedinvoices, </t>
   </si>
   <si>
-    <t xml:space="preserve"> Hrs/Qty
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.00
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Service
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Web Design
-This is a sample description...
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate/Price
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $85.00
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjust
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00%
-_x005F_x000C_</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sub Total
-_x005F_x000C_</t>
+    <t xml:space="preserve"> Hrs/Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web DesignThis is a sample description...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate/Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $85.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sub Total</t>
   </si>
 </sst>
 </file>

--- a/mergedInvoice/A.xlsx
+++ b/mergedInvoice/A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -34,16 +34,67 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice Number | INV-3337 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">From: DEMO - Sliced Invoices Suite 54-1204 123 Somewhere Street Your City AZ 12345 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To: Test Business 123 Somewhere St Melboume, VIC 3000 test@test.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@test, </t>
+    <t xml:space="preserve">Invoice Number I |NV—3337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Number I ST-2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No.: ST-18102021 Invoice Date: Oct16th, 202'] Item HRSIQ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No.: KS-18102021 Invoice Date: Oct16th, 202'] Item HRSIQ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Number I GK»6969 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: DEMO - Sliced Invoxces Suite 5A-1204 123 Somewhere Street Your City AZ 12845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: Rache\ Smith F-123, Blizzard Apartments Los Angeles California 201697 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM Star Media Ltd Ayush Sharma Star Media HQ. Sector 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM Konami Studios Hideo Kojima Konami HQ. Ximin Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: Demo— Stephanie Smith B3, 405 New Door Hostel, Bagru Jaipur 500301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Test Business 123 Somewhere St Melbourne, VIC 3000 test@lest.c0m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To: Star Media 404 B\ock B Hyderabad, 202134 admin@starmedia.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO ABC company John SmIt_h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO Trevor Wallace Trevor Wallace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tc: Galaxy Media 404 B\ock B Telangana, 578934 admin@ga\axy.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567899, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0987654321, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rachel@gmail.com, admin@starmedia, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">johnsmith@gmailcom, ayush@star.com, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trevorwalace123@yahoo.com, hideokojima@konami.com, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stephanie@invoice.com, admin@galaxy, </t>
   </si>
   <si>
     <t xml:space="preserve"> Hrs/Qty</t>
@@ -52,25 +103,133 @@
     <t xml:space="preserve"> 1.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTX 3080 - GPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTX 3050 - GPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTX 3060 - GPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTX 3070 - GPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asus G14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSI Prestige 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alienware M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M1 MacBook Air</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Service</t>
   </si>
   <si>
     <t xml:space="preserve"> Web DesignThis is a sample description...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rate/Price</t>
+    <t xml:space="preserve"> Sample Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HRSIQTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Video Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RatelPrice</t>
   </si>
   <si>
     <t xml:space="preserve"> $85.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 25000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 199.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Adjust</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.00%</t>
   </si>
   <si>
+    <t xml:space="preserve"> Tax</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sub Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USD 899.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USD 399.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USD 499.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD 599.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD 1,299.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD 2,599.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD 1,599.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD 899.00</t>
   </si>
 </sst>
 </file>
@@ -428,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,13 +633,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -488,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -508,19 +664,361 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
